--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy100_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy100_ptAll-nph_tileExpand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{78CEE623-588D-446E-8F5A-AD38579E70D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8FDA1-1237-4C91-8340-7DFDF236FC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="790" windowWidth="19200" windowHeight="9970" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <sheet name="N=4" sheetId="5" r:id="rId5"/>
     <sheet name="N=5" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1483,61 +1496,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>16.731276522435898</c:v>
+                  <c:v>15.373280769230766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.789711057692308</c:v>
+                  <c:v>15.759990384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.626744711538464</c:v>
+                  <c:v>16.073246153846156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.471171394230769</c:v>
+                  <c:v>15.763779166666662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.603445112179486</c:v>
+                  <c:v>15.701545512820514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.544924439102562</c:v>
+                  <c:v>15.672171794871794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.488947355769234</c:v>
+                  <c:v>15.635272435897436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.520077003205127</c:v>
+                  <c:v>15.690964743589744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.492629647435898</c:v>
+                  <c:v>15.537355128205128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.630746474358975</c:v>
+                  <c:v>15.671507371794871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.725009615384614</c:v>
+                  <c:v>15.720994230769232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.734017467948714</c:v>
+                  <c:v>15.7262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.714149358974357</c:v>
+                  <c:v>15.694997756410254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.67278060897436</c:v>
+                  <c:v>15.65953044871795</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.613977163461541</c:v>
+                  <c:v>15.619240384615381</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.686775881410259</c:v>
+                  <c:v>15.671842628205129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.699758173076923</c:v>
+                  <c:v>15.672391666666664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.708739743589742</c:v>
+                  <c:v>15.675287820512818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.706362499999997</c:v>
+                  <c:v>15.685991666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,6 +1639,7 @@
         <c:axId val="653846640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2677,7 +2691,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2716,8 +2730,7 @@
         <v>15.493210897435898</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(B2:E2)</f>
-        <v>16.731276522435898</v>
+        <v>15.373280769230766</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2737,8 +2750,7 @@
         <v>15.942716025641026</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>17.789711057692308</v>
+        <v>15.759990384615385</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2758,8 +2770,7 @@
         <v>16.29380961538461</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>18.626744711538464</v>
+        <v>16.073246153846156</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2779,8 +2790,7 @@
         <v>15.96266794871795</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>18.471171394230769</v>
+        <v>15.763779166666662</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2800,8 +2810,7 @@
         <v>15.875989423076923</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>18.603445112179486</v>
+        <v>15.701545512820514</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2821,8 +2830,7 @@
         <v>15.840034935897433</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>18.544924439102562</v>
+        <v>15.672171794871794</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2842,8 +2850,7 @@
         <v>15.778014102564107</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>18.488947355769234</v>
+        <v>15.635272435897436</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2863,8 +2870,7 @@
         <v>15.851864743589745</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>18.520077003205127</v>
+        <v>15.690964743589744</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2884,8 +2890,7 @@
         <v>15.668561858974357</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>18.492629647435898</v>
+        <v>15.537355128205128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2905,8 +2910,7 @@
         <v>15.839379487179485</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>18.630746474358975</v>
+        <v>15.671507371794871</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2926,8 +2930,7 @@
         <v>15.885191346153846</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>18.725009615384614</v>
+        <v>15.720994230769232</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2947,8 +2950,7 @@
         <v>15.897615384615383</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>18.734017467948714</v>
+        <v>15.7262</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2968,8 +2970,7 @@
         <v>15.86151987179487</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>18.714149358974357</v>
+        <v>15.694997756410254</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2989,8 +2990,7 @@
         <v>15.820579166666665</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>18.67278060897436</v>
+        <v>15.65953044871795</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3010,8 +3010,7 @@
         <v>15.761293269230775</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>18.613977163461541</v>
+        <v>15.619240384615381</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3031,8 +3030,7 @@
         <v>15.829912179487177</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>18.686775881410259</v>
+        <v>15.671842628205129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3052,8 +3050,7 @@
         <v>15.831118589743591</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>18.699758173076923</v>
+        <v>15.672391666666664</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3073,8 +3070,7 @@
         <v>15.836114423076921</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>18.708739743589742</v>
+        <v>15.675287820512818</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3094,8 +3090,7 @@
         <v>15.848484615384614</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>18.706362499999997</v>
+        <v>15.685991666666668</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3105,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3542,7 +3537,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3974,7 +3969,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4406,7 +4401,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy100_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy100_ptAll-nph_tileExpand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8FDA1-1237-4C91-8340-7DFDF236FC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1EE98-9C2B-4B23-B394-AEDF53D1BFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
@@ -728,13 +728,26 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11091426071741033"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.85341907261592309"/>
+          <c:h val="0.78185987168270632"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>N=1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -901,6 +914,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>N=2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1067,6 +1083,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>N=3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1233,6 +1252,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>N=4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1399,6 +1421,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>N=5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1594,18 +1619,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                  <a:t> of layers</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42227424150652498"/>
+              <c:y val="0.91274509803921566"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1616,16 +1706,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1639,6 +1729,7 @@
         <c:axId val="653846640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
           <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1657,18 +1748,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>PSNR[dB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1679,16 +1823,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1701,18 +1845,34 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83958661417322833"/>
+          <c:y val="0.45038340795635839"/>
+          <c:w val="0.10404190297891087"/>
+          <c:h val="0.31546446400082345"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1721,16 +1881,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
@@ -1746,12 +1906,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1761,7 +1916,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2334,16 +2492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2691,7 +2849,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2718,18 +2876,23 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <f>'N=1'!F2</f>
         <v>17.745355448717952</v>
       </c>
       <c r="C2">
+        <f>'N=2'!F2</f>
         <v>16.743303205128207</v>
       </c>
       <c r="D2">
+        <f>'N=3'!F2</f>
         <v>16.943236538461541</v>
       </c>
       <c r="E2">
+        <f>'N=4'!F2</f>
         <v>15.493210897435898</v>
       </c>
       <c r="F2">
+        <f>'N=5'!F2</f>
         <v>15.373280769230766</v>
       </c>
     </row>
@@ -2738,18 +2901,23 @@
         <v>15</v>
       </c>
       <c r="B3">
+        <f>'N=1'!F3</f>
         <v>19.244929807692305</v>
       </c>
       <c r="C3">
+        <f>'N=2'!F3</f>
         <v>17.976538782051286</v>
       </c>
       <c r="D3">
+        <f>'N=3'!F3</f>
         <v>17.994659615384613</v>
       </c>
       <c r="E3">
+        <f>'N=4'!F3</f>
         <v>15.942716025641026</v>
       </c>
       <c r="F3">
+        <f>'N=5'!F3</f>
         <v>15.759990384615385</v>
       </c>
     </row>
@@ -2758,18 +2926,23 @@
         <v>20</v>
       </c>
       <c r="B4">
+        <f>'N=1'!F4</f>
         <v>20.681311538461539</v>
       </c>
       <c r="C4">
+        <f>'N=2'!F4</f>
         <v>18.788336858974361</v>
       </c>
       <c r="D4">
+        <f>'N=3'!F4</f>
         <v>18.743520833333335</v>
       </c>
       <c r="E4">
+        <f>'N=4'!F4</f>
         <v>16.29380961538461</v>
       </c>
       <c r="F4">
+        <f>'N=5'!F4</f>
         <v>16.073246153846156</v>
       </c>
     </row>
@@ -2778,18 +2951,23 @@
         <v>25</v>
       </c>
       <c r="B5">
+        <f>'N=1'!F5</f>
         <v>21.207922435897434</v>
       </c>
       <c r="C5">
+        <f>'N=2'!F5</f>
         <v>18.327548397435894</v>
       </c>
       <c r="D5">
+        <f>'N=3'!F5</f>
         <v>18.386546794871794</v>
       </c>
       <c r="E5">
+        <f>'N=4'!F5</f>
         <v>15.96266794871795</v>
       </c>
       <c r="F5">
+        <f>'N=5'!F5</f>
         <v>15.763779166666662</v>
       </c>
     </row>
@@ -2798,18 +2976,23 @@
         <v>30</v>
       </c>
       <c r="B6">
+        <f>'N=1'!F6</f>
         <v>21.726686538461536</v>
       </c>
       <c r="C6">
+        <f>'N=2'!F6</f>
         <v>18.327696153846155</v>
       </c>
       <c r="D6">
+        <f>'N=3'!F6</f>
         <v>18.483408333333333</v>
       </c>
       <c r="E6">
+        <f>'N=4'!F6</f>
         <v>15.875989423076923</v>
       </c>
       <c r="F6">
+        <f>'N=5'!F6</f>
         <v>15.701545512820514</v>
       </c>
     </row>
@@ -2818,18 +3001,23 @@
         <v>35</v>
       </c>
       <c r="B7">
+        <f>'N=1'!F7</f>
         <v>21.711074038461536</v>
       </c>
       <c r="C7">
+        <f>'N=2'!F7</f>
         <v>18.21871282051282</v>
       </c>
       <c r="D7">
+        <f>'N=3'!F7</f>
         <v>18.409875961538461</v>
       </c>
       <c r="E7">
+        <f>'N=4'!F7</f>
         <v>15.840034935897433</v>
       </c>
       <c r="F7">
+        <f>'N=5'!F7</f>
         <v>15.672171794871794</v>
       </c>
     </row>
@@ -2838,18 +3026,23 @@
         <v>40</v>
       </c>
       <c r="B8">
+        <f>'N=1'!F8</f>
         <v>21.700908012820513</v>
       </c>
       <c r="C8">
+        <f>'N=2'!F8</f>
         <v>18.088488141025643</v>
       </c>
       <c r="D8">
+        <f>'N=3'!F8</f>
         <v>18.388379166666667</v>
       </c>
       <c r="E8">
+        <f>'N=4'!F8</f>
         <v>15.778014102564107</v>
       </c>
       <c r="F8">
+        <f>'N=5'!F8</f>
         <v>15.635272435897436</v>
       </c>
     </row>
@@ -2858,18 +3051,23 @@
         <v>45</v>
       </c>
       <c r="B9">
+        <f>'N=1'!F9</f>
         <v>21.738418269230763</v>
       </c>
       <c r="C9">
+        <f>'N=2'!F9</f>
         <v>18.116096794871801</v>
       </c>
       <c r="D9">
+        <f>'N=3'!F9</f>
         <v>18.373928205128205</v>
       </c>
       <c r="E9">
+        <f>'N=4'!F9</f>
         <v>15.851864743589745</v>
       </c>
       <c r="F9">
+        <f>'N=5'!F9</f>
         <v>15.690964743589744</v>
       </c>
     </row>
@@ -2878,18 +3076,23 @@
         <v>50</v>
       </c>
       <c r="B10">
+        <f>'N=1'!F10</f>
         <v>22.271766666666664</v>
       </c>
       <c r="C10">
+        <f>'N=2'!F10</f>
         <v>17.835055448717949</v>
       </c>
       <c r="D10">
+        <f>'N=3'!F10</f>
         <v>18.195134615384617</v>
       </c>
       <c r="E10">
+        <f>'N=4'!F10</f>
         <v>15.668561858974357</v>
       </c>
       <c r="F10">
+        <f>'N=5'!F10</f>
         <v>15.537355128205128</v>
       </c>
     </row>
@@ -2898,18 +3101,23 @@
         <v>55</v>
       </c>
       <c r="B11">
+        <f>'N=1'!F11</f>
         <v>22.090238461538462</v>
       </c>
       <c r="C11">
+        <f>'N=2'!F11</f>
         <v>18.182268589743593</v>
       </c>
       <c r="D11">
+        <f>'N=3'!F11</f>
         <v>18.411099358974358</v>
       </c>
       <c r="E11">
+        <f>'N=4'!F11</f>
         <v>15.839379487179485</v>
       </c>
       <c r="F11">
+        <f>'N=5'!F11</f>
         <v>15.671507371794871</v>
       </c>
     </row>
@@ -2918,18 +3126,23 @@
         <v>60</v>
       </c>
       <c r="B12">
+        <f>'N=1'!F12</f>
         <v>22.134112820512819</v>
       </c>
       <c r="C12">
+        <f>'N=2'!F12</f>
         <v>18.318065384615387</v>
       </c>
       <c r="D12">
+        <f>'N=3'!F12</f>
         <v>18.562668910256413</v>
       </c>
       <c r="E12">
+        <f>'N=4'!F12</f>
         <v>15.885191346153846</v>
       </c>
       <c r="F12">
+        <f>'N=5'!F12</f>
         <v>15.720994230769232</v>
       </c>
     </row>
@@ -2938,18 +3151,23 @@
         <v>65</v>
       </c>
       <c r="B13">
+        <f>'N=1'!F13</f>
         <v>22.140826282051279</v>
       </c>
       <c r="C13">
+        <f>'N=2'!F13</f>
         <v>18.342460576923077</v>
       </c>
       <c r="D13">
+        <f>'N=3'!F13</f>
         <v>18.55516762820513</v>
       </c>
       <c r="E13">
+        <f>'N=4'!F13</f>
         <v>15.897615384615383</v>
       </c>
       <c r="F13">
+        <f>'N=5'!F13</f>
         <v>15.7262</v>
       </c>
     </row>
@@ -2958,18 +3176,23 @@
         <v>70</v>
       </c>
       <c r="B14">
+        <f>'N=1'!F14</f>
         <v>22.222066987179481</v>
       </c>
       <c r="C14">
+        <f>'N=2'!F14</f>
         <v>18.259008333333334</v>
       </c>
       <c r="D14">
+        <f>'N=3'!F14</f>
         <v>18.514002243589744</v>
       </c>
       <c r="E14">
+        <f>'N=4'!F14</f>
         <v>15.86151987179487</v>
       </c>
       <c r="F14">
+        <f>'N=5'!F14</f>
         <v>15.694997756410254</v>
       </c>
     </row>
@@ -2978,18 +3201,23 @@
         <v>75</v>
       </c>
       <c r="B15">
+        <f>'N=1'!F15</f>
         <v>22.247664743589745</v>
       </c>
       <c r="C15">
+        <f>'N=2'!F15</f>
         <v>18.180731089743592</v>
       </c>
       <c r="D15">
+        <f>'N=3'!F15</f>
         <v>18.442147435897439</v>
       </c>
       <c r="E15">
+        <f>'N=4'!F15</f>
         <v>15.820579166666665</v>
       </c>
       <c r="F15">
+        <f>'N=5'!F15</f>
         <v>15.65953044871795</v>
       </c>
     </row>
@@ -2998,18 +3226,23 @@
         <v>80</v>
       </c>
       <c r="B16">
+        <f>'N=1'!F16</f>
         <v>22.287827884615389</v>
       </c>
       <c r="C16">
+        <f>'N=2'!F16</f>
         <v>18.037893910256408</v>
       </c>
       <c r="D16">
+        <f>'N=3'!F16</f>
         <v>18.368893589743589</v>
       </c>
       <c r="E16">
+        <f>'N=4'!F16</f>
         <v>15.761293269230775</v>
       </c>
       <c r="F16">
+        <f>'N=5'!F16</f>
         <v>15.619240384615381</v>
       </c>
     </row>
@@ -3018,18 +3251,23 @@
         <v>85</v>
       </c>
       <c r="B17">
+        <f>'N=1'!F17</f>
         <v>22.350217307692311</v>
       </c>
       <c r="C17">
+        <f>'N=2'!F17</f>
         <v>18.142483012820517</v>
       </c>
       <c r="D17">
+        <f>'N=3'!F17</f>
         <v>18.424491025641029</v>
       </c>
       <c r="E17">
+        <f>'N=4'!F17</f>
         <v>15.829912179487177</v>
       </c>
       <c r="F17">
+        <f>'N=5'!F17</f>
         <v>15.671842628205129</v>
       </c>
     </row>
@@ -3038,18 +3276,23 @@
         <v>90</v>
       </c>
       <c r="B18">
+        <f>'N=1'!F18</f>
         <v>22.371274038461536</v>
       </c>
       <c r="C18">
+        <f>'N=2'!F18</f>
         <v>18.157295512820514</v>
       </c>
       <c r="D18">
+        <f>'N=3'!F18</f>
         <v>18.439344551282051</v>
       </c>
       <c r="E18">
+        <f>'N=4'!F18</f>
         <v>15.831118589743591</v>
       </c>
       <c r="F18">
+        <f>'N=5'!F18</f>
         <v>15.672391666666664</v>
       </c>
     </row>
@@ -3058,18 +3301,23 @@
         <v>95</v>
       </c>
       <c r="B19">
+        <f>'N=1'!F19</f>
         <v>22.346842948717946</v>
       </c>
       <c r="C19">
+        <f>'N=2'!F19</f>
         <v>18.192557371794873</v>
       </c>
       <c r="D19">
+        <f>'N=3'!F19</f>
         <v>18.459444230769229</v>
       </c>
       <c r="E19">
+        <f>'N=4'!F19</f>
         <v>15.836114423076921</v>
       </c>
       <c r="F19">
+        <f>'N=5'!F19</f>
         <v>15.675287820512818</v>
       </c>
     </row>
@@ -3078,18 +3326,23 @@
         <v>100</v>
       </c>
       <c r="B20">
+        <f>'N=1'!F20</f>
         <v>22.248155128205127</v>
       </c>
       <c r="C20">
+        <f>'N=2'!F20</f>
         <v>18.234574679487181</v>
       </c>
       <c r="D20">
+        <f>'N=3'!F20</f>
         <v>18.494235576923074</v>
       </c>
       <c r="E20">
+        <f>'N=4'!F20</f>
         <v>15.848484615384614</v>
       </c>
       <c r="F20">
+        <f>'N=5'!F20</f>
         <v>15.685991666666668</v>
       </c>
     </row>

--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy100_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy100_ptAll-nph_tileExpand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1EE98-9C2B-4B23-B394-AEDF53D1BFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E320F8-BBE1-4A4D-9AAF-F1325E09FC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
@@ -1881,7 +1881,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2849,7 +2849,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
